--- a/Game/JX3/其他人账号.xlsx
+++ b/Game/JX3/其他人账号.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
